--- a/Exploratory Analysis/Exploratory Analysis Workbook.xlsx
+++ b/Exploratory Analysis/Exploratory Analysis Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sites\WYWM_DataAnalysisExcel\Exploratory Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5835B756-E326-4BF4-A15F-E14BC96657E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E849D91-BE8E-4EA4-A0CC-992DE7CCAD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,21 +22,13 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="10" r:id="rId7"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9129" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9288" uniqueCount="1619">
   <si>
     <t>Specific Bean Origin
 or Bar Name</t>
@@ -4868,6 +4860,42 @@
   </si>
   <si>
     <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Average of Rating</t>
+  </si>
+  <si>
+    <t>0.67-0.72</t>
+  </si>
+  <si>
+    <t>0.72-0.77</t>
+  </si>
+  <si>
+    <t>0.62-0.67</t>
+  </si>
+  <si>
+    <t>0.77-0.82</t>
+  </si>
+  <si>
+    <t>0.82-0.87</t>
+  </si>
+  <si>
+    <t>0.57-0.62</t>
+  </si>
+  <si>
+    <t>0.87-0.92</t>
+  </si>
+  <si>
+    <t>0.97-1.02</t>
+  </si>
+  <si>
+    <t>0.52-0.57</t>
+  </si>
+  <si>
+    <t>0.42-0.47</t>
+  </si>
+  <si>
+    <t>0.47-0.52</t>
   </si>
 </sst>
 </file>
@@ -5467,7 +5495,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5531,7 +5559,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5578,7 +5608,163 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="59">
+    <dxf>
+      <numFmt numFmtId="171" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -6226,6 +6412,63 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -7526,6 +7769,119 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lesson 2'!$M$7:$M$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lesson 2'!$A$9:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>U.S.A.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lesson 2'!$M$9:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DD6-4C21-873F-3E07E3E8CA42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
@@ -7746,7 +8102,1081 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Exploratory Analysis Workbook.xlsx]Lesson 2!PivotTable3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Top 10 Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of rating</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lesson 2'!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lesson 2'!$A$35:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Chile</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Philippines</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Amsterdam</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iceland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Vietnam</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Poland</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Australia</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Guatemala</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lesson 2'!$B$35:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4090909090909092</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3970588235294117</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4406-4616-BEE6-29B8BC3F7EA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="598878719"/>
+        <c:axId val="598887359"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="598878719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598887359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="598887359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598878719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Exploratory Analysis Workbook.xlsx]Lesson 2!PivotTable4</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Count of bars per cocoa %</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lesson 2'!$B$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lesson 2'!$A$50:$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.42-0.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47-0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52-0.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57-0.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62-0.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67-0.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72-0.77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77-0.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82-0.87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87-0.92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97-1.02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lesson 2'!$B$50:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3906-4DCF-98FF-81F525BF5709}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="598903199"/>
+        <c:axId val="598896959"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="598903199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598896959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="598896959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598903199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8289,6 +9719,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8327,17 +10763,89 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{935FBAE1-A3C1-79FB-AD25-65257B3FCAD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE7D854-9EBB-1D60-8DCC-D76F4A4278B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="M P" refreshedDate="45779.4945912037" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1771" xr:uid="{A90B7476-55D7-4DD8-A027-9C552FEA6665}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="M P" refreshedDate="45783.566950578701" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1795" xr:uid="{A90B7476-55D7-4DD8-A027-9C552FEA6665}">
   <cacheSource type="worksheet">
     <worksheetSource name="cacao"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="ID" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1771"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1795"/>
     </cacheField>
     <cacheField name="Company_x000a_(Maker-if known)" numFmtId="0">
       <sharedItems/>
@@ -8346,10 +10854,10 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="REF" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="1928"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="1952"/>
     </cacheField>
     <cacheField name="Review_x000a_Date" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2006" maxValue="2016" count="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2006" maxValue="2017" count="12">
         <n v="2006"/>
         <n v="2007"/>
         <n v="2008"/>
@@ -8361,10 +10869,11 @@
         <n v="2014"/>
         <n v="2015"/>
         <n v="2016"/>
+        <n v="2017"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2006-01-01T00:00:00" maxDate="2016-01-02T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2006-01-01T00:00:00" maxDate="2017-01-02T00:00:00"/>
     </cacheField>
     <cacheField name="Cocoa_x000a_Percent" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.42" maxValue="1" count="45">
@@ -8414,9 +10923,28 @@
         <n v="0.56999999999999995"/>
         <n v="0.86"/>
       </sharedItems>
+      <fieldGroup base="6">
+        <rangePr startNum="0.42" endNum="1" groupInterval="0.05"/>
+        <groupItems count="14">
+          <s v="&lt;0.42"/>
+          <s v="0.42-0.47"/>
+          <s v="0.47-0.52"/>
+          <s v="0.52-0.57"/>
+          <s v="0.57-0.62"/>
+          <s v="0.62-0.67"/>
+          <s v="0.67-0.72"/>
+          <s v="0.72-0.77"/>
+          <s v="0.77-0.82"/>
+          <s v="0.82-0.87"/>
+          <s v="0.87-0.92"/>
+          <s v="0.92-0.97"/>
+          <s v="0.97-1.02"/>
+          <s v="&gt;1.02"/>
+        </groupItems>
+      </fieldGroup>
     </cacheField>
     <cacheField name="Company_x000a_Location" numFmtId="0">
-      <sharedItems count="59">
+      <sharedItems count="60">
         <s v="U.S.A."/>
         <s v="France"/>
         <s v="U.K."/>
@@ -8476,6 +11004,7 @@
         <s v="Singapore"/>
         <s v="India"/>
         <s v="Suriname"/>
+        <s v="Netherlands"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Rating" numFmtId="0">
@@ -8497,7 +11026,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1771">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1795">
   <r>
     <n v="1"/>
     <s v="Jacque Torres"/>
@@ -31521,12 +34050,324 @@
     <s v="Blend"/>
     <s v="Vietnam"/>
   </r>
+  <r>
+    <n v="1772"/>
+    <s v="Dalloway"/>
+    <s v="Dominican Republic, batch 7"/>
+    <n v="1928"/>
+    <x v="11"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="2.75"/>
+    <s v="Trinitario"/>
+    <s v="Dominican Republic"/>
+  </r>
+  <r>
+    <n v="1773"/>
+    <s v="Soul"/>
+    <s v="Dominican Republic"/>
+    <n v="1932"/>
+    <x v="11"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="2"/>
+    <x v="17"/>
+    <n v="3.25"/>
+    <s v="Trinitario"/>
+    <s v="Dominican Republic"/>
+  </r>
+  <r>
+    <n v="1774"/>
+    <s v="Spencer"/>
+    <s v="Dominican Republic"/>
+    <n v="1932"/>
+    <x v="11"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3.75"/>
+    <s v="Trinitario"/>
+    <s v="Dominican Republic"/>
+  </r>
+  <r>
+    <n v="1775"/>
+    <s v="Spencer"/>
+    <s v="Ecuador"/>
+    <n v="1932"/>
+    <x v="11"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3.5"/>
+    <s v="Trinitario"/>
+    <s v="Ecuador"/>
+  </r>
+  <r>
+    <n v="1776"/>
+    <s v="Spencer"/>
+    <s v="Peru"/>
+    <n v="1932"/>
+    <x v="11"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="2.75"/>
+    <s v="Forastero"/>
+    <s v="Peru"/>
+  </r>
+  <r>
+    <n v="1777"/>
+    <s v="Soul"/>
+    <s v="Madagascar"/>
+    <n v="1936"/>
+    <x v="11"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="2"/>
+    <x v="17"/>
+    <n v="3.5"/>
+    <s v="Trinitario"/>
+    <s v="Madagascar"/>
+  </r>
+  <r>
+    <n v="1778"/>
+    <s v="Soul"/>
+    <s v="Venezuela"/>
+    <n v="1936"/>
+    <x v="11"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="1"/>
+    <x v="17"/>
+    <n v="3.5"/>
+    <s v="Trinitario"/>
+    <s v="Venezuela"/>
+  </r>
+  <r>
+    <n v="1779"/>
+    <s v="Soul"/>
+    <s v="Ecuador"/>
+    <n v="1936"/>
+    <x v="11"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="1"/>
+    <x v="17"/>
+    <n v="3.25"/>
+    <s v="Trinitario"/>
+    <s v="Ecuador"/>
+  </r>
+  <r>
+    <n v="1780"/>
+    <s v="Soul"/>
+    <s v="Papua New Guinea"/>
+    <n v="1936"/>
+    <x v="11"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="21"/>
+    <x v="17"/>
+    <n v="3.25"/>
+    <s v="Trinitario"/>
+    <s v="Papua New Guinea"/>
+  </r>
+  <r>
+    <n v="1781"/>
+    <s v="French Broad"/>
+    <s v="Norandino, batch 161208"/>
+    <n v="1940"/>
+    <x v="11"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3.5"/>
+    <s v="Forastero"/>
+    <s v="Peru"/>
+  </r>
+  <r>
+    <n v="1782"/>
+    <s v="Madre"/>
+    <s v="Guadalcanal"/>
+    <n v="1940"/>
+    <x v="11"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="3.5"/>
+    <s v="Blend"/>
+    <s v="Solomon Islands"/>
+  </r>
+  <r>
+    <n v="1783"/>
+    <s v="Smooth Chocolator, The"/>
+    <s v="Oko Caribe, DOR005"/>
+    <n v="1940"/>
+    <x v="11"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="2"/>
+    <x v="27"/>
+    <n v="3.5"/>
+    <s v="Trinitario"/>
+    <s v="Dominican Republic"/>
+  </r>
+  <r>
+    <n v="1784"/>
+    <s v="Soul"/>
+    <s v="Tanzania"/>
+    <n v="1940"/>
+    <x v="11"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="18"/>
+    <x v="17"/>
+    <n v="3.5"/>
+    <s v="Trinitario"/>
+    <s v="Tanzania"/>
+  </r>
+  <r>
+    <n v="1785"/>
+    <s v="Alexandre"/>
+    <s v="Winak Coop, Napo"/>
+    <n v="1944"/>
+    <x v="11"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="2"/>
+    <x v="59"/>
+    <n v="3.5"/>
+    <s v="Forastero"/>
+    <s v="Ecuador"/>
+  </r>
+  <r>
+    <n v="1786"/>
+    <s v="Alexandre"/>
+    <s v="La Dalia, Matagalpa"/>
+    <n v="1944"/>
+    <x v="11"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="2"/>
+    <x v="59"/>
+    <n v="3.5"/>
+    <s v="Criollo"/>
+    <s v="Nicaragua"/>
+  </r>
+  <r>
+    <n v="1787"/>
+    <s v="Alexandre"/>
+    <s v="Tien Giang"/>
+    <n v="1944"/>
+    <x v="11"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="2"/>
+    <x v="59"/>
+    <n v="3.5"/>
+    <s v="Trinitario"/>
+    <s v="Vietnam"/>
+  </r>
+  <r>
+    <n v="1788"/>
+    <s v="Alexandre"/>
+    <s v="Makwale Village, Kyela"/>
+    <n v="1944"/>
+    <x v="11"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="2"/>
+    <x v="59"/>
+    <n v="3.5"/>
+    <s v="Forastero"/>
+    <s v="Tanzania"/>
+  </r>
+  <r>
+    <n v="1789"/>
+    <s v="Beau Cacao"/>
+    <s v="Asajaya E, NW Borneo, b. #132/4500"/>
+    <n v="1948"/>
+    <x v="11"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="3"/>
+    <s v="Trinitario"/>
+    <s v="Malaysia"/>
+  </r>
+  <r>
+    <n v="1790"/>
+    <s v="Beau Cacao"/>
+    <s v="Serian E., NW Borneo, b. #134/3800"/>
+    <n v="1948"/>
+    <x v="11"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="3.25"/>
+    <s v="Blend"/>
+    <s v="Malaysia"/>
+  </r>
+  <r>
+    <n v="1791"/>
+    <s v="Xocolla"/>
+    <s v="Sambirano, batch 170102"/>
+    <n v="1948"/>
+    <x v="11"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="2.75"/>
+    <s v="Trinitario"/>
+    <s v="Madagascar"/>
+  </r>
+  <r>
+    <n v="1792"/>
+    <s v="Xocolla"/>
+    <s v="Hispaniola, batch 170104"/>
+    <n v="1948"/>
+    <x v="11"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="2.5"/>
+    <s v="Trinitario"/>
+    <s v="Dominican Republic"/>
+  </r>
+  <r>
+    <n v="1793"/>
+    <s v="Dick Taylor"/>
+    <s v="Lanquin Estate"/>
+    <n v="1952"/>
+    <x v="11"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3.75"/>
+    <s v="Trinitario"/>
+    <s v="Guatemala"/>
+  </r>
+  <r>
+    <n v="1794"/>
+    <s v="Letterpress"/>
+    <s v="La Masica, Batch 7, FHIA"/>
+    <n v="1952"/>
+    <x v="11"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3.5"/>
+    <s v="Trinitario"/>
+    <s v="Honduras"/>
+  </r>
+  <r>
+    <n v="1795"/>
+    <s v="Letterpress"/>
+    <s v="Maya Mtn, Batch 18, Heirloom"/>
+    <n v="1952"/>
+    <x v="11"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3.25"/>
+    <s v="Trinitario"/>
+    <s v="Belize"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{628A93B6-890D-4461-BD4F-B1C2F6CA9715}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
-  <location ref="A3:B63" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE336941-0AC0-4415-AFBC-D74A8160BE24}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+  <location ref="A66:B78" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -31534,9 +34375,153 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
     <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Rating" fld="8" subtotal="count" showDataAs="percentOfTotal" baseField="6" baseItem="19" numFmtId="10"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="58">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="57">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="56">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="55">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{628A93B6-890D-4461-BD4F-B1C2F6CA9715}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+  <location ref="A3:B64" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="60">
+      <items count="61">
         <item x="50"/>
         <item x="15"/>
         <item x="27"/>
@@ -31596,6 +34581,7 @@
         <item x="4"/>
         <item x="31"/>
         <item x="37"/>
+        <item x="59"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -31615,7 +34601,7 @@
   <rowFields count="1">
     <field x="7"/>
   </rowFields>
-  <rowItems count="60">
+  <rowItems count="61">
     <i>
       <x v="55"/>
     </i>
@@ -31665,16 +34651,16 @@
       <x v="35"/>
     </i>
     <i>
+      <x v="30"/>
+    </i>
+    <i>
       <x v="6"/>
     </i>
     <i>
-      <x v="30"/>
+      <x v="38"/>
     </i>
     <i>
       <x v="32"/>
-    </i>
-    <i>
-      <x v="38"/>
     </i>
     <i>
       <x v="12"/>
@@ -31683,13 +34669,10 @@
       <x v="57"/>
     </i>
     <i>
-      <x v="45"/>
-    </i>
-    <i>
       <x v="22"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="45"/>
     </i>
     <i>
       <x v="1"/>
@@ -31698,13 +34681,19 @@
       <x v="28"/>
     </i>
     <i>
+      <x v="10"/>
+    </i>
+    <i>
       <x v="40"/>
+    </i>
+    <i>
+      <x v="31"/>
     </i>
     <i>
       <x v="23"/>
     </i>
     <i>
-      <x v="31"/>
+      <x v="37"/>
     </i>
     <i>
       <x v="52"/>
@@ -31716,10 +34705,10 @@
       <x v="13"/>
     </i>
     <i>
-      <x v="37"/>
+      <x v="27"/>
     </i>
     <i>
-      <x v="27"/>
+      <x v="42"/>
     </i>
     <i>
       <x v="16"/>
@@ -31728,13 +34717,13 @@
       <x/>
     </i>
     <i>
+      <x v="44"/>
+    </i>
+    <i>
       <x v="34"/>
     </i>
     <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="44"/>
+      <x v="59"/>
     </i>
     <i>
       <x v="25"/>
@@ -31752,7 +34741,7 @@
       <x v="47"/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="50"/>
     </i>
     <i>
       <x v="17"/>
@@ -31761,22 +34750,16 @@
       <x v="5"/>
     </i>
     <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="43"/>
+      <x v="8"/>
     </i>
     <i>
       <x v="15"/>
     </i>
     <i>
-      <x v="39"/>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="26"/>
     </i>
     <i>
       <x v="51"/>
@@ -31788,10 +34771,16 @@
       <x v="58"/>
     </i>
     <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
       <x v="20"/>
     </i>
     <i>
-      <x v="36"/>
+      <x v="39"/>
     </i>
     <i t="grand">
       <x/>
@@ -31815,9 +34804,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE336941-0AC0-4415-AFBC-D74A8160BE24}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
-  <location ref="A66:B112" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0552CF-27BC-4B12-A96A-2A3BF12CFA6B}" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A49:B61" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -31825,53 +34814,203 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="46">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Rating" fld="8" subtotal="count" baseField="6" baseItem="6" numFmtId="1"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="33">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{86ADF30B-A35C-4A85-A622-CBC98F97FA3F}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A34:B45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
+      <items count="61">
+        <item x="50"/>
+        <item x="15"/>
+        <item x="27"/>
+        <item x="20"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item x="23"/>
+        <item x="17"/>
+        <item x="53"/>
+        <item x="5"/>
+        <item x="32"/>
+        <item x="51"/>
+        <item x="24"/>
         <item x="39"/>
-        <item x="34"/>
-        <item x="35"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="28"/>
+        <item x="44"/>
+        <item x="1"/>
         <item x="10"/>
         <item x="26"/>
+        <item x="13"/>
+        <item x="18"/>
+        <item x="48"/>
+        <item x="29"/>
+        <item x="45"/>
+        <item x="57"/>
+        <item x="43"/>
+        <item x="19"/>
+        <item x="6"/>
+        <item x="49"/>
+        <item x="33"/>
+        <item x="11"/>
+        <item x="42"/>
+        <item x="16"/>
+        <item x="59"/>
+        <item x="30"/>
         <item x="36"/>
-        <item x="43"/>
         <item x="25"/>
-        <item x="6"/>
-        <item x="32"/>
-        <item x="17"/>
-        <item x="13"/>
-        <item x="22"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="14"/>
+        <item x="21"/>
+        <item x="40"/>
+        <item x="34"/>
+        <item x="55"/>
+        <item x="38"/>
+        <item x="52"/>
+        <item x="12"/>
+        <item x="35"/>
+        <item x="56"/>
+        <item x="47"/>
+        <item x="54"/>
         <item x="8"/>
-        <item x="11"/>
-        <item x="29"/>
+        <item x="41"/>
+        <item x="58"/>
+        <item x="46"/>
+        <item x="7"/>
         <item x="2"/>
         <item x="0"/>
-        <item x="12"/>
-        <item x="41"/>
         <item x="4"/>
-        <item x="33"/>
-        <item x="19"/>
-        <item x="1"/>
-        <item x="30"/>
-        <item x="21"/>
-        <item x="27"/>
-        <item x="42"/>
-        <item x="18"/>
         <item x="31"/>
-        <item x="5"/>
-        <item x="38"/>
-        <item x="23"/>
-        <item x="7"/>
-        <item x="44"/>
         <item x="37"/>
-        <item x="28"/>
-        <item x="40"/>
-        <item x="20"/>
-        <item x="24"/>
-        <item x="16"/>
-        <item x="15"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -31884,149 +35023,43 @@
         </pivotArea>
       </autoSortScope>
     </pivotField>
-    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="6"/>
+    <field x="7"/>
   </rowFields>
-  <rowItems count="46">
+  <rowItems count="11">
     <i>
-      <x v="19"/>
+      <x v="8"/>
     </i>
     <i>
-      <x v="26"/>
+      <x v="35"/>
     </i>
     <i>
-      <x v="21"/>
+      <x v="40"/>
     </i>
     <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="31"/>
+      <x/>
     </i>
     <i>
       <x v="25"/>
     </i>
     <i>
-      <x v="17"/>
+      <x v="58"/>
     </i>
     <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="18"/>
+      <x v="6"/>
     </i>
     <i>
       <x v="41"/>
     </i>
     <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="34"/>
+      <x v="2"/>
     </i>
     <i>
       <x v="22"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="37"/>
     </i>
     <i t="grand">
       <x/>
@@ -32036,33 +35069,34 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of Rating" fld="8" subtotal="count" showDataAs="percentOfTotal" baseField="6" baseItem="19" numFmtId="10"/>
+    <dataField name="Average of Rating" fld="8" subtotal="average" baseField="7" baseItem="0" numFmtId="2"/>
   </dataFields>
-  <formats count="4">
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="6" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="4">
+  <formats count="1">
+    <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
-      <pivotArea outline="0" fieldPosition="0">
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
-          <reference field="4294967294" count="1">
+          <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
-    </format>
-  </formats>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="7" type="count" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="10" filterVal="10"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -32074,16 +35108,16 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8A426AD8-4E80-4F9A-A8F6-68AFC8384204}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A7:M10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8A426AD8-4E80-4F9A-A8F6-68AFC8384204}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A7:N10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="12">
+      <items count="13">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -32095,13 +35129,32 @@
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
-      <items count="60">
+      <items count="61">
         <item x="50"/>
         <item x="15"/>
         <item x="27"/>
@@ -32161,6 +35214,7 @@
         <item x="4"/>
         <item x="31"/>
         <item x="37"/>
+        <item x="59"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -32182,7 +35236,7 @@
   <colFields count="1">
     <field x="4"/>
   </colFields>
-  <colItems count="12">
+  <colItems count="13">
     <i>
       <x/>
     </i>
@@ -32216,6 +35270,9 @@
     <i>
       <x v="10"/>
     </i>
+    <i>
+      <x v="11"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -32223,7 +35280,7 @@
   <dataFields count="1">
     <dataField name="Count of ID" fld="0" subtotal="count" showDataAs="difference" baseField="4" baseItem="1048828"/>
   </dataFields>
-  <chartFormats count="11">
+  <chartFormats count="12">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -32356,6 +35413,18 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
@@ -32378,16 +35447,16 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9EA7C737-091E-4DB5-83F6-C72D07332A25}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
-  <location ref="A1:M4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9EA7C737-091E-4DB5-83F6-C72D07332A25}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+  <location ref="A1:N4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="12">
+      <items count="13">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -32399,13 +35468,32 @@
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
-      <items count="60">
+      <items count="61">
         <item x="50"/>
         <item x="15"/>
         <item x="27"/>
@@ -32465,6 +35553,7 @@
         <item x="4"/>
         <item x="31"/>
         <item x="37"/>
+        <item x="59"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -32486,7 +35575,7 @@
   <colFields count="1">
     <field x="4"/>
   </colFields>
-  <colItems count="12">
+  <colItems count="13">
     <i>
       <x/>
     </i>
@@ -32520,6 +35609,9 @@
     <i>
       <x v="10"/>
     </i>
+    <i>
+      <x v="11"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -32549,16 +35641,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A015356-0679-40FD-AF17-61EDAD16589D}" name="cacao" displayName="cacao" ref="A1:K1772" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:K1772" xr:uid="{7A015356-0679-40FD-AF17-61EDAD16589D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A015356-0679-40FD-AF17-61EDAD16589D}" name="cacao" displayName="cacao" ref="A1:K1796" totalsRowShown="0" headerRowDxfId="54">
+  <autoFilter ref="A1:K1796" xr:uid="{7A015356-0679-40FD-AF17-61EDAD16589D}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{BF1E0793-47DB-4AAA-8F20-D5E8C042274A}" name="ID"/>
     <tableColumn id="2" xr3:uid="{46B1FE7E-7B73-4F7C-BC5C-C1C8F6D25E74}" name="Company_x000a_(Maker-if known)"/>
     <tableColumn id="3" xr3:uid="{9A7674F5-057A-46B3-94A0-65A3FEE2C57E}" name="Specific Bean Origin_x000a_or Bar Name"/>
     <tableColumn id="4" xr3:uid="{65420490-C6B5-4221-83B6-CCDD3CBE9801}" name="REF"/>
     <tableColumn id="5" xr3:uid="{5F335177-BDC1-4D37-8FF6-EAFC4ECF3B07}" name="Review_x000a_Date"/>
-    <tableColumn id="6" xr3:uid="{04E60C54-AF0C-4752-849F-A827E0173555}" name="Date" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{F77826AD-923D-46E4-8324-4ABB6791CDCB}" name="Cocoa_x000a_Percent" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{04E60C54-AF0C-4752-849F-A827E0173555}" name="Date" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{F77826AD-923D-46E4-8324-4ABB6791CDCB}" name="Cocoa_x000a_Percent" dataDxfId="52"/>
     <tableColumn id="8" xr3:uid="{0316D5D9-5391-4692-A62C-AEBE58E5F051}" name="Company_x000a_Location"/>
     <tableColumn id="9" xr3:uid="{C3E9E936-7A51-42DF-9CFC-AAFA30E5DAD7}" name="Rating"/>
     <tableColumn id="10" xr3:uid="{335BB465-7A45-4A3B-AA41-97EF8D61C73A}" name="Bean_x000a_Type"/>
@@ -32975,15 +36067,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FAACD3-D2F3-4AF3-BFEB-453D40754984}">
-  <dimension ref="A3:B112"/>
+  <dimension ref="A3:B78"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -33000,7 +36092,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="16">
-        <v>0.42518351214003386</v>
+        <v>0.4256267409470752</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -33008,7 +36100,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="16">
-        <v>8.8085827216262E-2</v>
+        <v>8.690807799442897E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -33016,7 +36108,7 @@
         <v>98</v>
       </c>
       <c r="B6" s="16">
-        <v>6.7193675889328064E-2</v>
+        <v>6.9637883008356549E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -33024,7 +36116,7 @@
         <v>143</v>
       </c>
       <c r="B7" s="16">
-        <v>5.3077357425183512E-2</v>
+        <v>5.3481894150417826E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -33032,7 +36124,7 @@
         <v>101</v>
       </c>
       <c r="B8" s="16">
-        <v>3.5573122529644272E-2</v>
+        <v>3.5097493036211701E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -33040,7 +36132,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="16">
-        <v>3.0491247882552232E-2</v>
+        <v>3.0083565459610027E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -33048,7 +36140,7 @@
         <v>164</v>
       </c>
       <c r="B10" s="16">
-        <v>2.710333145115754E-2</v>
+        <v>2.7298050139275765E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -33056,7 +36148,7 @@
         <v>187</v>
       </c>
       <c r="B11" s="16">
-        <v>2.258610954263128E-2</v>
+        <v>2.2284122562674095E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -33064,7 +36156,7 @@
         <v>56</v>
       </c>
       <c r="B12" s="16">
-        <v>2.1456804065499716E-2</v>
+        <v>2.116991643454039E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -33072,7 +36164,7 @@
         <v>194</v>
       </c>
       <c r="B13" s="16">
-        <v>1.9762845849802372E-2</v>
+        <v>1.9498607242339833E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -33080,7 +36172,7 @@
         <v>966</v>
       </c>
       <c r="B14" s="16">
-        <v>1.4680971202710334E-2</v>
+        <v>1.4484679665738161E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -33088,7 +36180,7 @@
         <v>92</v>
       </c>
       <c r="B15" s="16">
-        <v>1.4116318464144552E-2</v>
+        <v>1.3927576601671309E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -33096,7 +36188,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="16">
-        <v>1.2987012987012988E-2</v>
+        <v>1.2813370473537604E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -33104,7 +36196,7 @@
         <v>1241</v>
       </c>
       <c r="B17" s="16">
-        <v>1.2422360248447204E-2</v>
+        <v>1.2256267409470752E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -33112,7 +36204,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="16">
-        <v>1.129305477131564E-2</v>
+        <v>1.1142061281337047E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -33120,39 +36212,39 @@
         <v>343</v>
       </c>
       <c r="B19" s="16">
-        <v>9.5990965556182941E-3</v>
+        <v>9.4707520891364905E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>27</v>
+        <v>324</v>
       </c>
       <c r="B20" s="16">
-        <v>9.5990965556182941E-3</v>
+        <v>9.4707520891364905E-3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="B21" s="16">
-        <v>9.5990965556182941E-3</v>
+        <v>9.4707520891364905E-3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B22" s="16">
-        <v>9.5990965556182941E-3</v>
+        <v>9.4707520891364905E-3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B23" s="16">
-        <v>9.5990965556182941E-3</v>
+        <v>9.4707520891364905E-3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -33160,7 +36252,7 @@
         <v>651</v>
       </c>
       <c r="B24" s="16">
-        <v>8.4697910784867301E-3</v>
+        <v>8.356545961002786E-3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -33168,47 +36260,47 @@
         <v>64</v>
       </c>
       <c r="B25" s="16">
-        <v>6.2111801242236021E-3</v>
+        <v>6.128133704735376E-3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>397</v>
+        <v>124</v>
       </c>
       <c r="B26" s="16">
-        <v>5.6465273856578201E-3</v>
+        <v>5.5710306406685237E-3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>124</v>
+        <v>397</v>
       </c>
       <c r="B27" s="16">
-        <v>5.6465273856578201E-3</v>
+        <v>5.5710306406685237E-3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>129</v>
+        <v>430</v>
       </c>
       <c r="B28" s="16">
-        <v>5.0818746470920381E-3</v>
+        <v>5.0139275766016714E-3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>430</v>
+        <v>751</v>
       </c>
       <c r="B29" s="16">
-        <v>5.0818746470920381E-3</v>
+        <v>5.0139275766016714E-3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>751</v>
+        <v>129</v>
       </c>
       <c r="B30" s="16">
-        <v>5.0818746470920381E-3</v>
+        <v>5.0139275766016714E-3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -33216,55 +36308,55 @@
         <v>935</v>
       </c>
       <c r="B31" s="16">
-        <v>4.517221908526256E-3</v>
+        <v>4.4568245125348191E-3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>127</v>
+        <v>1043</v>
       </c>
       <c r="B32" s="16">
-        <v>3.3879164313946925E-3</v>
+        <v>3.3426183844011141E-3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>1043</v>
+        <v>127</v>
       </c>
       <c r="B33" s="16">
-        <v>3.3879164313946925E-3</v>
+        <v>3.3426183844011141E-3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>924</v>
+        <v>70</v>
       </c>
       <c r="B34" s="16">
-        <v>2.82326369282891E-3</v>
+        <v>2.7855153203342618E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>379</v>
+        <v>924</v>
       </c>
       <c r="B35" s="16">
-        <v>2.82326369282891E-3</v>
+        <v>2.7855153203342618E-3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>137</v>
+        <v>379</v>
       </c>
       <c r="B36" s="16">
-        <v>2.82326369282891E-3</v>
+        <v>2.7855153203342618E-3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="B37" s="16">
-        <v>2.82326369282891E-3</v>
+        <v>2.7855153203342618E-3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -33272,206 +36364,214 @@
         <v>1511</v>
       </c>
       <c r="B38" s="16">
-        <v>2.258610954263128E-3</v>
+        <v>2.2284122562674096E-3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>46</v>
+        <v>288</v>
       </c>
       <c r="B39" s="16">
-        <v>2.258610954263128E-3</v>
+        <v>2.2284122562674096E-3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>392</v>
+        <v>46</v>
       </c>
       <c r="B40" s="16">
-        <v>2.258610954263128E-3</v>
+        <v>2.2284122562674096E-3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="B41" s="16">
-        <v>2.258610954263128E-3</v>
+        <v>2.2284122562674096E-3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="B42" s="16">
-        <v>2.258610954263128E-3</v>
+        <v>2.2284122562674096E-3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B43" s="16">
-        <v>2.258610954263128E-3</v>
+        <v>2.2284122562674096E-3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>1096</v>
+        <v>68</v>
       </c>
       <c r="B44" s="16">
-        <v>1.6939582156973462E-3</v>
+        <v>2.2284122562674096E-3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>608</v>
+        <v>1096</v>
       </c>
       <c r="B45" s="16">
-        <v>1.6939582156973462E-3</v>
+        <v>1.6713091922005571E-3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>106</v>
+        <v>608</v>
       </c>
       <c r="B46" s="16">
-        <v>1.6939582156973462E-3</v>
+        <v>1.6713091922005571E-3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>597</v>
+        <v>106</v>
       </c>
       <c r="B47" s="16">
-        <v>1.6939582156973462E-3</v>
+        <v>1.6713091922005571E-3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
-        <v>496</v>
+        <v>597</v>
       </c>
       <c r="B48" s="16">
-        <v>1.6939582156973462E-3</v>
+        <v>1.6713091922005571E-3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>1072</v>
+        <v>496</v>
       </c>
       <c r="B49" s="16">
-        <v>1.129305477131564E-3</v>
+        <v>1.6713091922005571E-3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>877</v>
+        <v>575</v>
       </c>
       <c r="B50" s="16">
-        <v>1.129305477131564E-3</v>
+        <v>1.1142061281337048E-3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>39</v>
+        <v>877</v>
       </c>
       <c r="B51" s="16">
-        <v>1.129305477131564E-3</v>
+        <v>1.1142061281337048E-3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
-        <v>575</v>
+        <v>39</v>
       </c>
       <c r="B52" s="16">
-        <v>1.129305477131564E-3</v>
+        <v>1.1142061281337048E-3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>802</v>
+        <v>1072</v>
       </c>
       <c r="B53" s="16">
-        <v>5.6465273856578201E-4</v>
+        <v>1.1142061281337048E-3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>788</v>
+        <v>1205</v>
       </c>
       <c r="B54" s="16">
-        <v>5.6465273856578201E-4</v>
+        <v>5.5710306406685239E-4</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>282</v>
+        <v>1060</v>
       </c>
       <c r="B55" s="16">
-        <v>5.6465273856578201E-4</v>
+        <v>5.5710306406685239E-4</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>1205</v>
+        <v>788</v>
       </c>
       <c r="B56" s="16">
-        <v>5.6465273856578201E-4</v>
+        <v>5.5710306406685239E-4</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>159</v>
+        <v>1408</v>
       </c>
       <c r="B57" s="16">
-        <v>5.6465273856578201E-4</v>
+        <v>5.5710306406685239E-4</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>1408</v>
+        <v>414</v>
       </c>
       <c r="B58" s="16">
-        <v>5.6465273856578201E-4</v>
+        <v>5.5710306406685239E-4</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>414</v>
+        <v>175</v>
       </c>
       <c r="B59" s="16">
-        <v>5.6465273856578201E-4</v>
+        <v>5.5710306406685239E-4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
-        <v>175</v>
+        <v>282</v>
       </c>
       <c r="B60" s="16">
-        <v>5.6465273856578201E-4</v>
+        <v>5.5710306406685239E-4</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
-        <v>91</v>
+        <v>802</v>
       </c>
       <c r="B61" s="16">
-        <v>5.6465273856578201E-4</v>
+        <v>5.5710306406685239E-4</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
-        <v>1060</v>
+        <v>91</v>
       </c>
       <c r="B62" s="16">
-        <v>5.6465273856578201E-4</v>
+        <v>5.5710306406685239E-4</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" s="16">
+        <v>5.5710306406685239E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
         <v>1603</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B64" s="16">
         <v>1</v>
       </c>
     </row>
@@ -33484,370 +36584,98 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="20">
-        <v>0.7</v>
+      <c r="A67" s="20" t="s">
+        <v>1608</v>
       </c>
       <c r="B67" s="16">
-        <v>0.37041219649915302</v>
+        <v>0.43844011142061279</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="20">
-        <v>0.75</v>
+      <c r="A68" s="20" t="s">
+        <v>1609</v>
       </c>
       <c r="B68" s="16">
-        <v>0.12422360248447205</v>
+        <v>0.29526462395543174</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="20">
-        <v>0.72</v>
+      <c r="A69" s="20" t="s">
+        <v>1610</v>
       </c>
       <c r="B69" s="16">
-        <v>0.10559006211180125</v>
+        <v>8.9693593314763231E-2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="20">
-        <v>0.65</v>
+      <c r="A70" s="20" t="s">
+        <v>1611</v>
       </c>
       <c r="B70" s="16">
-        <v>4.4042913608131E-2</v>
+        <v>7.1309192200557106E-2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="20">
-        <v>0.8</v>
+      <c r="A71" s="20" t="s">
+        <v>1612</v>
       </c>
       <c r="B71" s="16">
-        <v>4.0090344438170528E-2</v>
+        <v>3.4540389972144848E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="20">
-        <v>0.74</v>
+      <c r="A72" s="20" t="s">
+        <v>1613</v>
       </c>
       <c r="B72" s="16">
-        <v>2.8232636928289104E-2</v>
+        <v>3.3983286908077996E-2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="20">
-        <v>0.68</v>
+      <c r="A73" s="20" t="s">
+        <v>1614</v>
       </c>
       <c r="B73" s="16">
-        <v>2.6538678712591756E-2</v>
+        <v>1.2256267409470752E-2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="20">
-        <v>0.6</v>
+      <c r="A74" s="20" t="s">
+        <v>1615</v>
       </c>
       <c r="B74" s="16">
-        <v>2.4280067758328628E-2</v>
+        <v>1.2256267409470752E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="20">
-        <v>0.73</v>
+      <c r="A75" s="20" t="s">
+        <v>1616</v>
       </c>
       <c r="B75" s="16">
-        <v>2.1456804065499716E-2</v>
+        <v>1.0584958217270195E-2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="20">
-        <v>0.85</v>
+      <c r="A76" s="20" t="s">
+        <v>1617</v>
       </c>
       <c r="B76" s="16">
-        <v>2.0327498588368152E-2</v>
+        <v>1.1142061281337048E-3</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="20">
-        <v>0.64</v>
+      <c r="A77" s="20" t="s">
+        <v>1618</v>
       </c>
       <c r="B77" s="16">
-        <v>1.9198193111236588E-2</v>
+        <v>5.5710306406685239E-4</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="20">
-        <v>0.77</v>
+      <c r="A78" s="20" t="s">
+        <v>1603</v>
       </c>
       <c r="B78" s="16">
-        <v>1.8068887634105024E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="20">
-        <v>0.71</v>
-      </c>
-      <c r="B79" s="16">
-        <v>1.7504234895539244E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="20">
-        <v>0.67</v>
-      </c>
-      <c r="B80" s="16">
-        <v>1.5245623941276116E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="20">
-        <v>0.76</v>
-      </c>
-      <c r="B81" s="16">
-        <v>1.2987012987012988E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="20">
-        <v>0.66</v>
-      </c>
-      <c r="B82" s="16">
-        <v>1.2987012987012988E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="20">
-        <v>1</v>
-      </c>
-      <c r="B83" s="16">
-        <v>1.129305477131564E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="20">
-        <v>0.82</v>
-      </c>
-      <c r="B84" s="16">
-        <v>9.5990965556182941E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="20">
-        <v>0.78</v>
-      </c>
-      <c r="B85" s="16">
-        <v>9.5990965556182941E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="20">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="B86" s="16">
-        <v>9.0344438170525121E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="20">
-        <v>0.62</v>
-      </c>
-      <c r="B87" s="16">
-        <v>7.9051383399209481E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="20">
-        <v>0.63</v>
-      </c>
-      <c r="B88" s="16">
-        <v>6.7758328627893849E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="20">
-        <v>0.69</v>
-      </c>
-      <c r="B89" s="16">
-        <v>5.6465273856578201E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="20">
-        <v>0.9</v>
-      </c>
-      <c r="B90" s="16">
-        <v>4.517221908526256E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="20">
-        <v>0.88</v>
-      </c>
-      <c r="B91" s="16">
-        <v>4.517221908526256E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="20">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="B92" s="16">
-        <v>4.517221908526256E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="20">
-        <v>0.61</v>
-      </c>
-      <c r="B93" s="16">
-        <v>4.517221908526256E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="20">
-        <v>0.81</v>
-      </c>
-      <c r="B94" s="16">
-        <v>2.82326369282891E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="20">
-        <v>0.84</v>
-      </c>
-      <c r="B95" s="16">
-        <v>2.258610954263128E-3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="20">
-        <v>0.83</v>
-      </c>
-      <c r="B96" s="16">
-        <v>2.258610954263128E-3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="20">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="B97" s="16">
-        <v>2.258610954263128E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="20">
-        <v>0.91</v>
-      </c>
-      <c r="B98" s="16">
-        <v>1.6939582156973462E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="20">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="B99" s="16">
-        <v>1.129305477131564E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="20">
-        <v>0.89</v>
-      </c>
-      <c r="B100" s="16">
-        <v>1.129305477131564E-3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="20">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="B101" s="16">
-        <v>1.129305477131564E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="20">
-        <v>0.99</v>
-      </c>
-      <c r="B102" s="16">
-        <v>1.129305477131564E-3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="20">
-        <v>0.53</v>
-      </c>
-      <c r="B103" s="16">
-        <v>5.6465273856578201E-4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="20">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="B104" s="16">
-        <v>5.6465273856578201E-4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="20">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="B105" s="16">
-        <v>5.6465273856578201E-4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="20">
-        <v>0.79</v>
-      </c>
-      <c r="B106" s="16">
-        <v>5.6465273856578201E-4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="20">
-        <v>0.46</v>
-      </c>
-      <c r="B107" s="16">
-        <v>5.6465273856578201E-4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="20">
-        <v>0.87</v>
-      </c>
-      <c r="B108" s="16">
-        <v>5.6465273856578201E-4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="B109" s="16">
-        <v>5.6465273856578201E-4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="20">
-        <v>0.42</v>
-      </c>
-      <c r="B110" s="16">
-        <v>5.6465273856578201E-4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="20">
-        <v>0.86</v>
-      </c>
-      <c r="B111" s="16">
-        <v>5.6465273856578201E-4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="20" t="s">
-        <v>1603</v>
-      </c>
-      <c r="B112" s="16">
         <v>1</v>
       </c>
     </row>
@@ -33860,8 +36688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L1796"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A1762" workbookViewId="0">
+      <selection activeCell="E1785" sqref="E1785"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -95901,100 +98729,844 @@
       </c>
     </row>
     <row r="1773" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F1773" s="13"/>
-      <c r="G1773" s="14"/>
+      <c r="A1773">
+        <v>1772</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>461</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1773">
+        <v>1928</v>
+      </c>
+      <c r="E1773">
+        <v>2017</v>
+      </c>
+      <c r="F1773" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G1773" s="14">
+        <v>0.72</v>
+      </c>
+      <c r="H1773" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1773">
+        <v>2.75</v>
+      </c>
+      <c r="J1773" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1773" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="1774" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F1774" s="13"/>
-      <c r="G1774" s="14"/>
+      <c r="A1774">
+        <v>1773</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1774">
+        <v>1932</v>
+      </c>
+      <c r="E1774">
+        <v>2017</v>
+      </c>
+      <c r="F1774" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G1774" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="H1774" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1774">
+        <v>3.25</v>
+      </c>
+      <c r="J1774" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1774" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="1775" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F1775" s="13"/>
-      <c r="G1775" s="14"/>
+      <c r="A1775">
+        <v>1774</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1775">
+        <v>1932</v>
+      </c>
+      <c r="E1775">
+        <v>2017</v>
+      </c>
+      <c r="F1775" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G1775" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="H1775" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1775">
+        <v>3.75</v>
+      </c>
+      <c r="J1775" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1775" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="1776" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F1776" s="13"/>
-      <c r="G1776" s="14"/>
-    </row>
-    <row r="1777" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F1777" s="13"/>
-      <c r="G1777" s="14"/>
-    </row>
-    <row r="1778" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F1778" s="13"/>
-      <c r="G1778" s="14"/>
-    </row>
-    <row r="1779" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F1779" s="13"/>
-      <c r="G1779" s="14"/>
-    </row>
-    <row r="1780" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F1780" s="13"/>
-      <c r="G1780" s="14"/>
-    </row>
-    <row r="1781" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F1781" s="13"/>
-      <c r="G1781" s="14"/>
-    </row>
-    <row r="1782" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F1782" s="13"/>
-      <c r="G1782" s="14"/>
-    </row>
-    <row r="1783" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F1783" s="13"/>
-      <c r="G1783" s="14"/>
-    </row>
-    <row r="1784" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F1784" s="13"/>
-      <c r="G1784" s="14"/>
-    </row>
-    <row r="1785" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F1785" s="13"/>
-      <c r="G1785" s="14"/>
-    </row>
-    <row r="1786" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F1786" s="13"/>
-      <c r="G1786" s="14"/>
-    </row>
-    <row r="1787" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F1787" s="13"/>
-      <c r="G1787" s="14"/>
-    </row>
-    <row r="1788" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F1788" s="13"/>
-      <c r="G1788" s="14"/>
-    </row>
-    <row r="1789" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F1789" s="13"/>
-      <c r="G1789" s="14"/>
-    </row>
-    <row r="1790" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F1790" s="13"/>
-      <c r="G1790" s="14"/>
-    </row>
-    <row r="1791" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F1791" s="13"/>
-      <c r="G1791" s="14"/>
-    </row>
-    <row r="1792" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F1792" s="13"/>
-      <c r="G1792" s="14"/>
-    </row>
-    <row r="1793" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F1793" s="13"/>
-      <c r="G1793" s="14"/>
-    </row>
-    <row r="1794" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F1794" s="13"/>
-      <c r="G1794" s="14"/>
-    </row>
-    <row r="1795" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F1795" s="13"/>
-      <c r="G1795" s="14"/>
-    </row>
-    <row r="1796" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F1796" s="13"/>
-      <c r="G1796" s="14"/>
+      <c r="A1776">
+        <v>1775</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1776">
+        <v>1932</v>
+      </c>
+      <c r="E1776">
+        <v>2017</v>
+      </c>
+      <c r="F1776" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G1776" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="H1776" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1776">
+        <v>3.5</v>
+      </c>
+      <c r="J1776" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1776" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1777">
+        <v>1776</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1777">
+        <v>1932</v>
+      </c>
+      <c r="E1777">
+        <v>2017</v>
+      </c>
+      <c r="F1777" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G1777" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="H1777" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1777">
+        <v>2.75</v>
+      </c>
+      <c r="J1777" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1777" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1778">
+        <v>1777</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1778">
+        <v>1936</v>
+      </c>
+      <c r="E1778">
+        <v>2017</v>
+      </c>
+      <c r="F1778" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G1778" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="H1778" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1778">
+        <v>3.5</v>
+      </c>
+      <c r="J1778" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1778" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1779">
+        <v>1778</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1779">
+        <v>1936</v>
+      </c>
+      <c r="E1779">
+        <v>2017</v>
+      </c>
+      <c r="F1779" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G1779" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H1779" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1779">
+        <v>3.5</v>
+      </c>
+      <c r="J1779" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1779" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1780">
+        <v>1779</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1780">
+        <v>1936</v>
+      </c>
+      <c r="E1780">
+        <v>2017</v>
+      </c>
+      <c r="F1780" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G1780" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H1780" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1780">
+        <v>3.25</v>
+      </c>
+      <c r="J1780" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1780" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1781">
+        <v>1780</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1781">
+        <v>1936</v>
+      </c>
+      <c r="E1781">
+        <v>2017</v>
+      </c>
+      <c r="F1781" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G1781" s="14">
+        <v>0.77</v>
+      </c>
+      <c r="H1781" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1781">
+        <v>3.25</v>
+      </c>
+      <c r="J1781" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1781" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1782">
+        <v>1781</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>615</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>616</v>
+      </c>
+      <c r="D1782">
+        <v>1940</v>
+      </c>
+      <c r="E1782">
+        <v>2017</v>
+      </c>
+      <c r="F1782" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G1782" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="H1782" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1782">
+        <v>3.5</v>
+      </c>
+      <c r="J1782" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1782" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1783">
+        <v>1782</v>
+      </c>
+      <c r="B1783" t="s">
+        <v>904</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>905</v>
+      </c>
+      <c r="D1783">
+        <v>1940</v>
+      </c>
+      <c r="E1783">
+        <v>2017</v>
+      </c>
+      <c r="F1783" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G1783" s="14">
+        <v>0.73</v>
+      </c>
+      <c r="H1783" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1783">
+        <v>3.5</v>
+      </c>
+      <c r="J1783" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1783" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1784">
+        <v>1783</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D1784">
+        <v>1940</v>
+      </c>
+      <c r="E1784">
+        <v>2017</v>
+      </c>
+      <c r="F1784" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G1784" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="H1784" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1784">
+        <v>3.5</v>
+      </c>
+      <c r="J1784" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1784" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1785">
+        <v>1784</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C1785" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1785">
+        <v>1940</v>
+      </c>
+      <c r="E1785">
+        <v>2017</v>
+      </c>
+      <c r="F1785" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G1785" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="H1785" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1785">
+        <v>3.5</v>
+      </c>
+      <c r="J1785" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1785" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1786">
+        <v>1785</v>
+      </c>
+      <c r="B1786" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1786" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1786">
+        <v>1944</v>
+      </c>
+      <c r="E1786">
+        <v>2017</v>
+      </c>
+      <c r="F1786" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G1786" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="H1786" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1786">
+        <v>3.5</v>
+      </c>
+      <c r="J1786" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1786" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1787">
+        <v>1786</v>
+      </c>
+      <c r="B1787" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1787">
+        <v>1944</v>
+      </c>
+      <c r="E1787">
+        <v>2017</v>
+      </c>
+      <c r="F1787" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G1787" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="H1787" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1787">
+        <v>3.5</v>
+      </c>
+      <c r="J1787" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1787" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1788">
+        <v>1787</v>
+      </c>
+      <c r="B1788" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1788">
+        <v>1944</v>
+      </c>
+      <c r="E1788">
+        <v>2017</v>
+      </c>
+      <c r="F1788" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G1788" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="H1788" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1788">
+        <v>3.5</v>
+      </c>
+      <c r="J1788" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1788" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1789">
+        <v>1788</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1789" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1789">
+        <v>1944</v>
+      </c>
+      <c r="E1789">
+        <v>2017</v>
+      </c>
+      <c r="F1789" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G1789" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="H1789" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1789">
+        <v>3.5</v>
+      </c>
+      <c r="J1789" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1789" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1790">
+        <v>1789</v>
+      </c>
+      <c r="B1790" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1790" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1790">
+        <v>1948</v>
+      </c>
+      <c r="E1790">
+        <v>2017</v>
+      </c>
+      <c r="F1790" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G1790" s="14">
+        <v>0.73</v>
+      </c>
+      <c r="H1790" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1790">
+        <v>3</v>
+      </c>
+      <c r="J1790" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1790" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1791">
+        <v>1790</v>
+      </c>
+      <c r="B1791" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1791">
+        <v>1948</v>
+      </c>
+      <c r="E1791">
+        <v>2017</v>
+      </c>
+      <c r="F1791" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G1791" s="14">
+        <v>0.72</v>
+      </c>
+      <c r="H1791" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1791">
+        <v>3.25</v>
+      </c>
+      <c r="J1791" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1791" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1792">
+        <v>1791</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D1792">
+        <v>1948</v>
+      </c>
+      <c r="E1792">
+        <v>2017</v>
+      </c>
+      <c r="F1792" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G1792" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="H1792" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1792">
+        <v>2.75</v>
+      </c>
+      <c r="J1792" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1792" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1793">
+        <v>1792</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D1793">
+        <v>1948</v>
+      </c>
+      <c r="E1793">
+        <v>2017</v>
+      </c>
+      <c r="F1793" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G1793" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="H1793" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1793">
+        <v>2.5</v>
+      </c>
+      <c r="J1793" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1793" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1794">
+        <v>1793</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1794">
+        <v>1952</v>
+      </c>
+      <c r="E1794">
+        <v>2017</v>
+      </c>
+      <c r="F1794" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G1794" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="H1794" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1794">
+        <v>3.75</v>
+      </c>
+      <c r="J1794" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1794" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1795">
+        <v>1794</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>869</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>870</v>
+      </c>
+      <c r="D1795">
+        <v>1952</v>
+      </c>
+      <c r="E1795">
+        <v>2017</v>
+      </c>
+      <c r="F1795" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G1795" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="H1795" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1795">
+        <v>3.5</v>
+      </c>
+      <c r="J1795" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1795" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1796">
+        <v>1795</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>869</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>871</v>
+      </c>
+      <c r="D1796">
+        <v>1952</v>
+      </c>
+      <c r="E1796">
+        <v>2017</v>
+      </c>
+      <c r="F1796" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G1796" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="H1796" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1796">
+        <v>3.25</v>
+      </c>
+      <c r="J1796" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1796" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -96007,21 +99579,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA349743-B4DD-411B-BB5E-AFADD6A730CF}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="U55" sqref="U55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>1605</v>
       </c>
@@ -96029,7 +99601,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>1602</v>
       </c>
@@ -96066,93 +99638,102 @@
       <c r="L2">
         <v>2016</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>2017</v>
+      </c>
+      <c r="N2" t="s">
         <v>1603</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="28">
         <v>13</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="28">
         <v>29</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="28">
         <v>22</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="28">
         <v>35</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="28">
         <v>38</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="28">
         <v>67</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="28">
         <v>95</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="28">
         <v>82</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="28">
         <v>118</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="28">
         <v>148</v>
       </c>
-      <c r="L3" s="27">
+      <c r="L3" s="28">
         <v>106</v>
       </c>
-      <c r="M3" s="27">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="28">
+        <v>11</v>
+      </c>
+      <c r="N3" s="28">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>1603</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="28">
         <v>13</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="28">
         <v>29</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="28">
         <v>22</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="28">
         <v>35</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="28">
         <v>38</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="28">
         <v>67</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="28">
         <v>95</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="28">
         <v>82</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="28">
         <v>118</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="28">
         <v>148</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="28">
         <v>106</v>
       </c>
-      <c r="M4" s="27">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="28">
+        <v>11</v>
+      </c>
+      <c r="N4" s="28">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>1605</v>
       </c>
@@ -96160,7 +99741,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>1602</v>
       </c>
@@ -96197,87 +99778,296 @@
       <c r="L8">
         <v>2016</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8">
+        <v>2017</v>
+      </c>
+      <c r="N8" t="s">
         <v>1603</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28">
         <v>16</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="28">
         <v>-7</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="28">
         <v>13</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="28">
         <v>3</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="28">
         <v>29</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="28">
         <v>28</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="28">
         <v>-13</v>
       </c>
-      <c r="J9" s="27">
-        <v>36</v>
-      </c>
-      <c r="K9" s="27">
+      <c r="J9" s="28">
+        <v>36</v>
+      </c>
+      <c r="K9" s="28">
         <v>30</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="28">
         <v>-42</v>
       </c>
-      <c r="M9" s="27"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M9" s="28">
+        <v>-95</v>
+      </c>
+      <c r="N9" s="28"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>1603</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28">
         <v>16</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="28">
         <v>-7</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="28">
         <v>13</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="28">
         <v>3</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="28">
         <v>29</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="28">
         <v>28</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="28">
         <v>-13</v>
       </c>
-      <c r="J10" s="27">
-        <v>36</v>
-      </c>
-      <c r="K10" s="27">
+      <c r="J10" s="28">
+        <v>36</v>
+      </c>
+      <c r="K10" s="28">
         <v>30</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="28">
         <v>-42</v>
       </c>
-      <c r="M10" s="27"/>
+      <c r="M10" s="28">
+        <v>-95</v>
+      </c>
+      <c r="N10" s="28"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B35" s="27">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="27">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="27">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="B38" s="27">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B39" s="27">
+        <v>3.4166666666666665</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="27">
+        <v>3.4090909090909092</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="27">
+        <v>3.3970588235294117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>935</v>
+      </c>
+      <c r="B42" s="27">
+        <v>3.375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="27">
+        <v>3.3571428571428572</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="27">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B45" s="27">
+        <v>3.3899082568807342</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B50" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B51" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B52" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B53" s="29">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B54" s="29">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="20" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B55" s="29">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B56" s="29">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B57" s="29">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B58" s="29">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B59" s="29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B60" s="29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B61" s="29">
+        <v>1795</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -96481,7 +100271,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="K25" sqref="A1:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
